--- a/Labs/Lab8/manga_data.xlsx
+++ b/Labs/Lab8/manga_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\BCIT Work Synced Folder\My Courses\COMP3522 OOP 2\Winter 2020\Week 9\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN\PycharmProjects\3522_A00910749\Labs\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986F236-18E3-4D86-AEC2-676FC44ECE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F3139-BC4C-4C71-8BD7-9B37E088616E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,19 +390,19 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -419,7 +419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>

--- a/Labs/Lab8/manga_data.xlsx
+++ b/Labs/Lab8/manga_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVIN\PycharmProjects\3522_A00910749\Labs\Lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0F3139-BC4C-4C71-8BD7-9B37E088616E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A757431-BFC3-4C31-B6B8-2A98353B5640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
